--- a/results.xlsx
+++ b/results.xlsx
@@ -21,6 +21,161 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+  <si>
+    <t>002 003 -&gt; 0.0016697770</t>
+  </si>
+  <si>
+    <t>000 001 -&gt; 0.0138782085</t>
+  </si>
+  <si>
+    <t>001 002 -&gt; 0.0010024742</t>
+  </si>
+  <si>
+    <t>007 008 -&gt; 0.0014450725</t>
+  </si>
+  <si>
+    <t>005 006 -&gt; 0.0039497570</t>
+  </si>
+  <si>
+    <t>004 005 -&gt; 0.0073484572</t>
+  </si>
+  <si>
+    <t>006 007 -&gt; 0.0016355766</t>
+  </si>
+  <si>
+    <t>003 004 -&gt; 0.0055070783</t>
+  </si>
+  <si>
+    <t>002 004 -&gt; 0.0012025642</t>
+  </si>
+  <si>
+    <t>000 002 -&gt; 0.0009791607</t>
+  </si>
+  <si>
+    <t>007 009 -&gt; 0.0012166349</t>
+  </si>
+  <si>
+    <t>001 003 -&gt; 0.0120014544</t>
+  </si>
+  <si>
+    <t>006 008 -&gt; 0.0015868855</t>
+  </si>
+  <si>
+    <t>004 006 -&gt; 0.0029175494</t>
+  </si>
+  <si>
+    <t>005 007 -&gt; 0.0033851931</t>
+  </si>
+  <si>
+    <t>003 005 -&gt; 0.0036115901</t>
+  </si>
+  <si>
+    <t>002 005 -&gt; 0.0029007082</t>
+  </si>
+  <si>
+    <t>000 003 -&gt; 0.0336328635</t>
+  </si>
+  <si>
+    <t>008 009 -&gt; 0.0012463453</t>
+  </si>
+  <si>
+    <t>001 004 -&gt; 0.0038091540</t>
+  </si>
+  <si>
+    <t>006 009 -&gt; 0.0012858293</t>
+  </si>
+  <si>
+    <t>004 007 -&gt; 0.0039590575</t>
+  </si>
+  <si>
+    <t>005 008 -&gt; 0.0030562170</t>
+  </si>
+  <si>
+    <t>003 006 -&gt; 0.0016810059</t>
+  </si>
+  <si>
+    <t>002 006 -&gt; 0.0014928373</t>
+  </si>
+  <si>
+    <t>000 004 -&gt; 0.0056989101</t>
+  </si>
+  <si>
+    <t>001 005 -&gt; 0.0032527027</t>
+  </si>
+  <si>
+    <t>004 008 -&gt; 0.0019546418</t>
+  </si>
+  <si>
+    <t>005 009 -&gt; 0.0023003834</t>
+  </si>
+  <si>
+    <t>003 007 -&gt; 0.0108036126</t>
+  </si>
+  <si>
+    <t>002 007 -&gt; 0.0014233458</t>
+  </si>
+  <si>
+    <t>000 005 -&gt; 0.0038748932</t>
+  </si>
+  <si>
+    <t>001 006 -&gt; 0.0014119490</t>
+  </si>
+  <si>
+    <t>004 009 -&gt; 0.0010815552</t>
+  </si>
+  <si>
+    <t>003 008 -&gt; 0.0013547670</t>
+  </si>
+  <si>
+    <t>002 008 -&gt; 0.0229006631</t>
+  </si>
+  <si>
+    <t>000 006 -&gt; 0.0017391176</t>
+  </si>
+  <si>
+    <t>001 007 -&gt; 0.0403587383</t>
+  </si>
+  <si>
+    <t>003 009 -&gt; 0.0011877853</t>
+  </si>
+  <si>
+    <t>002 009 -&gt; 0.0013982977</t>
+  </si>
+  <si>
+    <t>000 007 -&gt; 0.0116830803</t>
+  </si>
+  <si>
+    <t>001 008 -&gt; 0.0016172312</t>
+  </si>
+  <si>
+    <t>000 008 -&gt; 0.0015327217</t>
+  </si>
+  <si>
+    <t>001 009 -&gt; 0.0011138403</t>
+  </si>
+  <si>
+    <t>000 009 -&gt; 0.0009690912</t>
+  </si>
+  <si>
+    <t>time elapsed: 13 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 12 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 10 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 9 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 8 seconds</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +491,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
   <si>
     <t>002 003 -&gt; 0.0016697770</t>
   </si>
@@ -174,6 +174,345 @@
   </si>
   <si>
     <t>time elapsed: 8 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 6 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 5 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 4 seconds</t>
+  </si>
+  <si>
+    <t>time elapsed: 3 seconds</t>
+  </si>
+  <si>
+    <t>007 010 -&gt; 0.0007583032</t>
+  </si>
+  <si>
+    <t>006 010 -&gt; 0.0009707183</t>
+  </si>
+  <si>
+    <t>007 011 -&gt; 0.0009243758</t>
+  </si>
+  <si>
+    <t>006 011 -&gt; 0.0006283837</t>
+  </si>
+  <si>
+    <t>005 010 -&gt; 0.0016850059</t>
+  </si>
+  <si>
+    <t>007 012 -&gt; 0.0007973152</t>
+  </si>
+  <si>
+    <t>006 012 -&gt; 0.0009398583</t>
+  </si>
+  <si>
+    <t>005 011 -&gt; 0.0014299463</t>
+  </si>
+  <si>
+    <t>007 013 -&gt; 0.0016632388</t>
+  </si>
+  <si>
+    <t>004 010 -&gt; 0.0008622512</t>
+  </si>
+  <si>
+    <t>006 013 -&gt; 0.0013490713</t>
+  </si>
+  <si>
+    <t>003 010 -&gt; 0.0006963815</t>
+  </si>
+  <si>
+    <t>005 012 -&gt; 0.0012087963</t>
+  </si>
+  <si>
+    <t>007 014 -&gt; 0.0012116381</t>
+  </si>
+  <si>
+    <t>004 011 -&gt; 0.0009643603</t>
+  </si>
+  <si>
+    <t>006 014 -&gt; 0.0012905360</t>
+  </si>
+  <si>
+    <t>002 010 -&gt; 0.0008238734</t>
+  </si>
+  <si>
+    <t>003 011 -&gt; 0.0006344947</t>
+  </si>
+  <si>
+    <t>005 013 -&gt; 0.0023094846</t>
+  </si>
+  <si>
+    <t>004 012 -&gt; 0.0007163196</t>
+  </si>
+  <si>
+    <t>009 010 -&gt; 0.0004786216</t>
+  </si>
+  <si>
+    <t>002 011 -&gt; 0.0009606551</t>
+  </si>
+  <si>
+    <t>003 012 -&gt; 0.0008263289</t>
+  </si>
+  <si>
+    <t>005 014 -&gt; 0.0026777767</t>
+  </si>
+  <si>
+    <t>001 010 -&gt; 0.0007089660</t>
+  </si>
+  <si>
+    <t>004 013 -&gt; 0.0009809644</t>
+  </si>
+  <si>
+    <t>008 010 -&gt; 0.0010863687</t>
+  </si>
+  <si>
+    <t>009 011 -&gt; 0.0008319012</t>
+  </si>
+  <si>
+    <t>000 010 -&gt; 0.0006320228</t>
+  </si>
+  <si>
+    <t>002 012 -&gt; 0.0012061390</t>
+  </si>
+  <si>
+    <t>003 013 -&gt; 0.0013494541</t>
+  </si>
+  <si>
+    <t>010 011 -&gt; 0.0166913410</t>
+  </si>
+  <si>
+    <t>004 014 -&gt; 0.0021965580</t>
+  </si>
+  <si>
+    <t>001 011 -&gt; 0.0008122977</t>
+  </si>
+  <si>
+    <t>009 012 -&gt; 0.0009438642</t>
+  </si>
+  <si>
+    <t>008 011 -&gt; 0.0006855431</t>
+  </si>
+  <si>
+    <t>000 011 -&gt; 0.0006492783</t>
+  </si>
+  <si>
+    <t>002 013 -&gt; 0.0055625131</t>
+  </si>
+  <si>
+    <t>010 012 -&gt; 0.0124528520</t>
+  </si>
+  <si>
+    <t>003 014 -&gt; 0.0016436260</t>
+  </si>
+  <si>
+    <t>011 012 -&gt; 0.0891844030</t>
+  </si>
+  <si>
+    <t>001 012 -&gt; 0.0007425084</t>
+  </si>
+  <si>
+    <t>009 013 -&gt; 0.0018685738</t>
+  </si>
+  <si>
+    <t>008 012 -&gt; 0.0007547111</t>
+  </si>
+  <si>
+    <t>000 012 -&gt; 0.0006109648</t>
+  </si>
+  <si>
+    <t>002 014 -&gt; 0.0263165585</t>
+  </si>
+  <si>
+    <t>010 013 -&gt; 0.0006066048</t>
+  </si>
+  <si>
+    <t>011 013 -&gt; 0.0012777815</t>
+  </si>
+  <si>
+    <t>012 013 -&gt; 0.0015766111</t>
+  </si>
+  <si>
+    <t>009 014 -&gt; 0.0009279697</t>
+  </si>
+  <si>
+    <t>001 013 -&gt; 0.0008595933</t>
+  </si>
+  <si>
+    <t>008 013 -&gt; 0.0038886750</t>
+  </si>
+  <si>
+    <t>000 013 -&gt; 0.0010715159</t>
+  </si>
+  <si>
+    <t>010 014 -&gt; 0.0008446630</t>
+  </si>
+  <si>
+    <t>013 014 -&gt; 0.0034781535</t>
+  </si>
+  <si>
+    <t>011 014 -&gt; 0.0006657081</t>
+  </si>
+  <si>
+    <t>012 014 -&gt; 0.0007350996</t>
+  </si>
+  <si>
+    <t>001 014 -&gt; 0.0014766603</t>
+  </si>
+  <si>
+    <t>008 014 -&gt; 0.0406636776</t>
+  </si>
+  <si>
+    <t>000 014 -&gt; 0.0011636888</t>
+  </si>
+  <si>
+    <t>007 015 -&gt; 0.0015982628</t>
+  </si>
+  <si>
+    <t>002 015 -&gt; 0.0057057644</t>
+  </si>
+  <si>
+    <t>006 015 -&gt; 0.0012912538</t>
+  </si>
+  <si>
+    <t>005 015 -&gt; 0.0021496415</t>
+  </si>
+  <si>
+    <t>003 015 -&gt; 0.0014777299</t>
+  </si>
+  <si>
+    <t>001 015 -&gt; 0.0008883718</t>
+  </si>
+  <si>
+    <t>004 015 -&gt; 0.0008929115</t>
+  </si>
+  <si>
+    <t>000 015 -&gt; 0.0010940528</t>
+  </si>
+  <si>
+    <t>003 016 -&gt; 0.0011236918</t>
+  </si>
+  <si>
+    <t>001 016 -&gt; 0.0013350194</t>
+  </si>
+  <si>
+    <t>005 016 -&gt; 0.0029890357</t>
+  </si>
+  <si>
+    <t>007 016 -&gt; 0.0016169211</t>
+  </si>
+  <si>
+    <t>004 016 -&gt; 0.0024286776</t>
+  </si>
+  <si>
+    <t>002 016 -&gt; 0.0016722151</t>
+  </si>
+  <si>
+    <t>000 016 -&gt; 0.0012051006</t>
+  </si>
+  <si>
+    <t>006 016 -&gt; 0.0018898930</t>
+  </si>
+  <si>
+    <t>002 017 -&gt; 0.0005942847</t>
+  </si>
+  <si>
+    <t>006 017 -&gt; 0.0004181115</t>
+  </si>
+  <si>
+    <t>004 017 -&gt; 0.0004479123</t>
+  </si>
+  <si>
+    <t>000 017 -&gt; 0.0007571853</t>
+  </si>
+  <si>
+    <t>003 017 -&gt; 0.0008176928</t>
+  </si>
+  <si>
+    <t>007 017 -&gt; 0.0006339271</t>
+  </si>
+  <si>
+    <t>005 017 -&gt; 0.0012555837</t>
+  </si>
+  <si>
+    <t>001 017 -&gt; 0.0007919450</t>
+  </si>
+  <si>
+    <t>014 015 -&gt; 0.0036716449</t>
+  </si>
+  <si>
+    <t>015 016 -&gt; 0.0033623384</t>
+  </si>
+  <si>
+    <t>013 015 -&gt; 0.6923499157</t>
+  </si>
+  <si>
+    <t>014 016 -&gt; 0.0011115202</t>
+  </si>
+  <si>
+    <t>015 017 -&gt; 0.0009787646</t>
+  </si>
+  <si>
+    <t>012 015 -&gt; 0.0016693889</t>
+  </si>
+  <si>
+    <t>013 016 -&gt; 0.0034245005</t>
+  </si>
+  <si>
+    <t>014 017 -&gt; 0.0012001890</t>
+  </si>
+  <si>
+    <t>016 017 -&gt; 0.0008952852</t>
+  </si>
+  <si>
+    <t>012 016 -&gt; 0.0010653266</t>
+  </si>
+  <si>
+    <t>013 017 -&gt; 0.0010868330</t>
+  </si>
+  <si>
+    <t>011 015 -&gt; 0.0011385162</t>
+  </si>
+  <si>
+    <t>012 017 -&gt; 0.0838979988</t>
+  </si>
+  <si>
+    <t>010 015 -&gt; 0.0006063474</t>
+  </si>
+  <si>
+    <t>011 016 -&gt; 0.0015070150</t>
+  </si>
+  <si>
+    <t>010 016 -&gt; 0.0007557342</t>
+  </si>
+  <si>
+    <t>011 017 -&gt; 0.1062770081</t>
+  </si>
+  <si>
+    <t>009 015 -&gt; 0.0019134879</t>
+  </si>
+  <si>
+    <t>010 017 -&gt; 0.0147739116</t>
+  </si>
+  <si>
+    <t>008 015 -&gt; 0.0041108566</t>
+  </si>
+  <si>
+    <t>009 016 -&gt; 0.0020141079</t>
+  </si>
+  <si>
+    <t>008 016 -&gt; 0.0018792184</t>
+  </si>
+  <si>
+    <t>009 017 -&gt; 0.0006245207</t>
+  </si>
+  <si>
+    <t>008 017 -&gt; 0.0007743479</t>
+  </si>
+  <si>
+    <t>time elapsed: 63 seconds</t>
   </si>
 </sst>
 </file>
@@ -491,15 +830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +854,23 @@
       <c r="M1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,8 +886,23 @@
       <c r="M2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -549,8 +918,20 @@
       <c r="M3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -566,8 +947,20 @@
       <c r="M4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -583,8 +976,17 @@
       <c r="M5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -600,8 +1002,17 @@
       <c r="M6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -617,8 +1028,17 @@
       <c r="M7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -634,8 +1054,14 @@
       <c r="M8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -651,8 +1077,14 @@
       <c r="M9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -668,8 +1100,14 @@
       <c r="M10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -685,8 +1123,14 @@
       <c r="M11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -702,8 +1146,11 @@
       <c r="M12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AB12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -719,8 +1166,11 @@
       <c r="M13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AB13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -736,8 +1186,11 @@
       <c r="M14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -753,8 +1206,11 @@
       <c r="M15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AB15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -770,8 +1226,11 @@
       <c r="M16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -784,8 +1243,11 @@
       <c r="J17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -798,8 +1260,11 @@
       <c r="J18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -812,8 +1277,11 @@
       <c r="J19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -826,8 +1294,11 @@
       <c r="J20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -840,8 +1311,11 @@
       <c r="J21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -854,8 +1328,11 @@
       <c r="J22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -865,8 +1342,11 @@
       <c r="G23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -876,8 +1356,11 @@
       <c r="G24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -887,8 +1370,11 @@
       <c r="G25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -898,8 +1384,11 @@
       <c r="G26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -909,8 +1398,11 @@
       <c r="G27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -920,8 +1412,11 @@
       <c r="G28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -931,114 +1426,708 @@
       <c r="G29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="AB45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB119" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB120" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB126" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB130" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB132" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB135" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB136" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB137" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB138" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB141" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB142" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB143" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB144" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB147" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB151" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB153" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB154" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
